--- a/my-excel-test/src/main/resources/excel/jxls-test-02.xlsx
+++ b/my-excel-test/src/main/resources/excel/jxls-test-02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\my-excel\my-excel-test\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhuang\git\my-excel\my-excel-test\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822BE88-420B-46F2-90DF-C86199ECC9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F067C23C-0093-4FE0-BDF8-F39512FC84CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HP</author>
+    <author>admin</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -47,7 +48,23 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="list" var="item" lastCell="H2")</t>
+          <t xml:space="preserve">jx:each(items="groupBySex.keySet()" var="key" lastCell="D2")
+jx:mergeCells(lastCell="A2" cols="1" rows="groupBySex.get(key).size()")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{BA0EF7C4-A1A3-4F6F-8E96-D01F3F8394EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="groupBySex.get(key)" var="item" lastCell="D2")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +73,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>${key}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>${item.name}</t>
   </si>
@@ -65,28 +100,13 @@
   </si>
   <si>
     <t>${utils:formatDate(item.date,"yyyy-MM-dd HH:mm:ss")}</t>
-  </si>
-  <si>
-    <t>${item.sex}</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>性别</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +116,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -433,52 +460,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.46875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -488,7 +520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -501,7 +533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
